--- a/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFB2429-6B14-48A7-9981-88EDBD195737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61155EA-8974-4A30-ADB6-03F61B3AE755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1AD77351-2F03-45C4-9404-6D460F7A301B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E7311E3-6FC2-4838-B254-1CBFA172883D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="403">
-  <si>
-    <t>Población según la frecuencia de consumición de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="405">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1174 +74,1180 @@
     <t>32,77%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
   </si>
   <si>
     <t>23,08%</t>
   </si>
   <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>17,88%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1656,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3AFB4B7-0442-47FC-879A-4FADC1352584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD2DCB-060B-4AD0-8732-EFD6FF3658C8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2157,10 +2163,10 @@
         <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -2169,13 +2175,13 @@
         <v>211818</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2196,13 @@
         <v>97383</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -2205,13 +2211,13 @@
         <v>97052</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>181</v>
@@ -2220,13 +2226,13 @@
         <v>194435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2247,13 @@
         <v>76741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -2256,13 +2262,13 @@
         <v>89395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -2271,13 +2277,13 @@
         <v>166136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2298,13 @@
         <v>87855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -2307,13 +2313,13 @@
         <v>112198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -2322,13 +2328,13 @@
         <v>200053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2390,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2402,13 @@
         <v>94736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -2411,13 +2417,13 @@
         <v>109275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -2426,13 +2432,13 @@
         <v>204011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2453,13 @@
         <v>114573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -2462,13 +2468,13 @@
         <v>90152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>210</v>
@@ -2477,13 +2483,13 @@
         <v>204725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2504,13 @@
         <v>66152</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -2513,13 +2519,13 @@
         <v>79193</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>147</v>
@@ -2528,13 +2534,13 @@
         <v>145344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2555,13 @@
         <v>22091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -2564,13 +2570,13 @@
         <v>32229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -2579,13 +2585,13 @@
         <v>54320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2606,13 @@
         <v>21013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2615,13 +2621,13 @@
         <v>23639</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2630,13 +2636,13 @@
         <v>44653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2704,13 +2710,13 @@
         <v>143900</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -2719,13 +2725,13 @@
         <v>154191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -2734,13 +2740,13 @@
         <v>298091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2761,13 @@
         <v>63005</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -2770,13 +2776,13 @@
         <v>69537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -2785,13 +2791,13 @@
         <v>132542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2812,13 @@
         <v>61091</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -2821,13 +2827,13 @@
         <v>52954</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -2836,13 +2842,13 @@
         <v>114045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2863,13 @@
         <v>26414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2872,13 +2878,13 @@
         <v>27220</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2887,13 +2893,13 @@
         <v>53635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2914,13 @@
         <v>71865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>77</v>
@@ -2923,13 +2929,13 @@
         <v>80970</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -2938,13 +2944,13 @@
         <v>152835</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3006,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3012,13 +3018,13 @@
         <v>6128</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3027,13 +3033,13 @@
         <v>10189</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3042,13 +3048,13 @@
         <v>16318</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3069,13 @@
         <v>32377</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -3078,13 +3084,13 @@
         <v>31967</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -3093,13 +3099,13 @@
         <v>64344</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3120,13 @@
         <v>54681</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>52</v>
@@ -3129,13 +3135,13 @@
         <v>50585</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -3144,13 +3150,13 @@
         <v>105266</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3171,13 @@
         <v>75090</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -3180,13 +3186,13 @@
         <v>79425</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>156</v>
@@ -3195,13 +3201,13 @@
         <v>154514</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3222,13 @@
         <v>42944</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -3231,13 +3237,13 @@
         <v>46421</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>89</v>
@@ -3246,10 +3252,10 @@
         <v>89366</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>238</v>
@@ -3392,7 +3398,7 @@
         <v>253</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
         <v>55</v>
@@ -3401,13 +3407,13 @@
         <v>57216</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3428,13 @@
         <v>34893</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -3437,13 +3443,13 @@
         <v>35533</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -3452,13 +3458,13 @@
         <v>70427</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3479,13 @@
         <v>26132</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -3488,7 +3494,7 @@
         <v>27532</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>269</v>
@@ -3545,7 +3551,7 @@
         <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>48</v>
@@ -3554,13 +3560,13 @@
         <v>50378</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,7 +3622,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3634,13 @@
         <v>131224</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="H40" s="7">
         <v>139</v>
@@ -3643,13 +3649,13 @@
         <v>152412</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M40" s="7">
         <v>260</v>
@@ -3658,13 +3664,13 @@
         <v>283637</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3685,13 @@
         <v>126080</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H41" s="7">
         <v>126</v>
@@ -3694,13 +3700,13 @@
         <v>132996</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M41" s="7">
         <v>234</v>
@@ -3709,13 +3715,13 @@
         <v>259077</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,13 +3736,13 @@
         <v>157428</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>150</v>
@@ -3745,13 +3751,13 @@
         <v>160758</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M42" s="7">
         <v>287</v>
@@ -3760,13 +3766,13 @@
         <v>318186</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3787,13 @@
         <v>103710</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H43" s="7">
         <v>101</v>
@@ -3796,13 +3802,13 @@
         <v>106134</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M43" s="7">
         <v>191</v>
@@ -3811,13 +3817,13 @@
         <v>209845</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>310</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3838,13 @@
         <v>127853</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H44" s="7">
         <v>121</v>
@@ -3847,13 +3853,13 @@
         <v>129416</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M44" s="7">
         <v>236</v>
@@ -3862,13 +3868,13 @@
         <v>257269</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,7 +3930,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3936,13 +3942,13 @@
         <v>71032</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H46" s="7">
         <v>52</v>
@@ -3951,13 +3957,13 @@
         <v>58782</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M46" s="7">
         <v>122</v>
@@ -3966,13 +3972,13 @@
         <v>129814</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3993,13 @@
         <v>130707</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="H47" s="7">
         <v>135</v>
@@ -4002,13 +4008,13 @@
         <v>149168</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="M47" s="7">
         <v>265</v>
@@ -4017,13 +4023,13 @@
         <v>279875</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4044,13 @@
         <v>189627</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>337</v>
+        <v>69</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H48" s="7">
         <v>203</v>
@@ -4053,13 +4059,13 @@
         <v>220346</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M48" s="7">
         <v>388</v>
@@ -4068,13 +4074,13 @@
         <v>409973</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4095,13 @@
         <v>229157</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="H49" s="7">
         <v>211</v>
@@ -4104,13 +4110,13 @@
         <v>227839</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M49" s="7">
         <v>431</v>
@@ -4119,13 +4125,13 @@
         <v>456996</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4146,13 @@
         <v>151121</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H50" s="7">
         <v>147</v>
@@ -4155,13 +4161,13 @@
         <v>162327</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M50" s="7">
         <v>286</v>
@@ -4170,13 +4176,13 @@
         <v>313448</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>210</v>
+        <v>366</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4250,13 @@
         <v>824624</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H52" s="7">
         <v>785</v>
@@ -4259,13 +4265,13 @@
         <v>833861</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M52" s="7">
         <v>1581</v>
@@ -4274,13 +4280,13 @@
         <v>1658485</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4301,13 @@
         <v>635172</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H53" s="7">
         <v>602</v>
@@ -4310,13 +4316,13 @@
         <v>640194</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="M53" s="7">
         <v>1209</v>
@@ -4325,13 +4331,13 @@
         <v>1275366</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>376</v>
+        <v>94</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4352,13 @@
         <v>723979</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>380</v>
+        <v>53</v>
       </c>
       <c r="H54" s="7">
         <v>703</v>
@@ -4361,13 +4367,13 @@
         <v>745461</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>382</v>
+        <v>55</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="M54" s="7">
         <v>1391</v>
@@ -4376,13 +4382,13 @@
         <v>1469439</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4403,13 @@
         <v>607170</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>387</v>
+        <v>58</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>388</v>
+        <v>295</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H55" s="7">
         <v>607</v>
@@ -4412,13 +4418,13 @@
         <v>641430</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>213</v>
+        <v>392</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M55" s="7">
         <v>1188</v>
@@ -4427,13 +4433,13 @@
         <v>1248599</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4454,13 @@
         <v>574669</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H56" s="7">
         <v>616</v>
@@ -4463,13 +4469,13 @@
         <v>656276</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M56" s="7">
         <v>1150</v>
@@ -4478,13 +4484,13 @@
         <v>1230945</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>72</v>
+        <v>403</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>400</v>
+        <v>284</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4546,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61155EA-8974-4A30-ADB6-03F61B3AE755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0A07F9-4CE5-42E2-AFCF-8075F3EEBB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E7311E3-6FC2-4838-B254-1CBFA172883D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D54E38D7-349A-4E75-BF24-F7E8C46E6D67}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="405">
-  <si>
-    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="396">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1180 +74,1153 @@
     <t>32,77%</t>
   </si>
   <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>18,14%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>18,45%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>20,04%</t>
   </si>
   <si>
     <t>17,88%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1662,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD2DCB-060B-4AD0-8732-EFD6FF3658C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23BF5DF-5CB9-4CDE-BDEA-BD24C44B2826}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1960,7 +1933,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -1969,19 +1942,19 @@
         <v>99489</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>46</v>
@@ -1990,13 +1963,13 @@
         <v>52870</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -2005,13 +1978,13 @@
         <v>70073</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>114</v>
@@ -2020,13 +1993,13 @@
         <v>122943</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,13 +2014,13 @@
         <v>291152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -2056,13 +2029,13 @@
         <v>284243</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>537</v>
@@ -2071,18 +2044,18 @@
         <v>575395</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2094,13 +2067,13 @@
         <v>127883</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2109,13 +2082,13 @@
         <v>119721</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -2124,13 +2097,13 @@
         <v>247603</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2145,13 +2118,13 @@
         <v>108448</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -2160,10 +2133,10 @@
         <v>103371</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>75</v>
@@ -2202,7 +2175,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -2211,13 +2184,13 @@
         <v>97052</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>181</v>
@@ -2226,13 +2199,13 @@
         <v>194435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2220,13 @@
         <v>76741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -2262,13 +2235,13 @@
         <v>89395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -2277,19 +2250,19 @@
         <v>166136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
@@ -2298,13 +2271,13 @@
         <v>87855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -2313,13 +2286,13 @@
         <v>112198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -2328,13 +2301,13 @@
         <v>200053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2322,13 @@
         <v>498309</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>483</v>
@@ -2364,13 +2337,13 @@
         <v>521737</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>954</v>
@@ -2379,18 +2352,18 @@
         <v>1020046</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2402,13 +2375,13 @@
         <v>94736</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -2417,13 +2390,13 @@
         <v>109275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -2432,13 +2405,13 @@
         <v>204011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2426,13 @@
         <v>114573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -2468,13 +2441,13 @@
         <v>90152</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>210</v>
@@ -2483,13 +2456,13 @@
         <v>204725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,10 +2480,10 @@
         <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
@@ -2519,13 +2492,13 @@
         <v>79193</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>147</v>
@@ -2534,13 +2507,13 @@
         <v>145344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2528,13 @@
         <v>22091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -2570,13 +2543,13 @@
         <v>32229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -2585,19 +2558,19 @@
         <v>54320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>22</v>
@@ -2606,13 +2579,13 @@
         <v>21013</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -2621,13 +2594,13 @@
         <v>23639</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -2636,13 +2609,13 @@
         <v>44653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2630,13 @@
         <v>318565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>330</v>
@@ -2672,13 +2645,13 @@
         <v>334488</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>665</v>
@@ -2687,18 +2660,18 @@
         <v>653053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2710,13 +2683,13 @@
         <v>143900</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>141</v>
@@ -2725,13 +2698,13 @@
         <v>154191</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>280</v>
@@ -2740,13 +2713,13 @@
         <v>298091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2734,13 @@
         <v>63005</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>64</v>
@@ -2776,13 +2749,13 @@
         <v>69537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>123</v>
@@ -2791,13 +2764,13 @@
         <v>132542</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,13 +2785,13 @@
         <v>61091</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -2827,13 +2800,13 @@
         <v>52954</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>107</v>
@@ -2842,13 +2815,13 @@
         <v>114045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2836,13 @@
         <v>26414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2878,13 +2851,13 @@
         <v>27220</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2893,19 +2866,19 @@
         <v>53635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>68</v>
@@ -2914,13 +2887,13 @@
         <v>71865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>77</v>
@@ -2929,13 +2902,13 @@
         <v>80970</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -2944,13 +2917,13 @@
         <v>152835</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2938,13 @@
         <v>366275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>356</v>
@@ -2980,13 +2953,13 @@
         <v>384873</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>707</v>
@@ -2995,18 +2968,18 @@
         <v>751148</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3018,13 +2991,13 @@
         <v>6128</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3033,13 +3006,13 @@
         <v>10189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3048,13 +3021,13 @@
         <v>16318</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3042,13 @@
         <v>32377</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -3084,13 +3057,13 @@
         <v>31967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -3099,13 +3072,13 @@
         <v>64344</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,10 +3093,10 @@
         <v>54681</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>214</v>
@@ -3213,7 +3186,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>42</v>
@@ -3273,13 +3246,13 @@
         <v>211221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>223</v>
@@ -3288,13 +3261,13 @@
         <v>218587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>435</v>
@@ -3303,13 +3276,13 @@
         <v>429808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,7 +3371,7 @@
         <v>253</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="M35" s="7">
         <v>55</v>
@@ -3407,13 +3380,13 @@
         <v>57216</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3401,13 @@
         <v>34893</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -3449,7 +3422,7 @@
         <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>261</v>
+        <v>50</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -3458,13 +3431,13 @@
         <v>70427</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3452,13 @@
         <v>26132</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -3494,13 +3467,13 @@
         <v>27532</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3509,19 +3482,19 @@
         <v>53664</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>18</v>
@@ -3530,13 +3503,13 @@
         <v>19148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -3548,10 +3521,10 @@
         <v>27</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>48</v>
@@ -3560,13 +3533,13 @@
         <v>50378</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3554,13 @@
         <v>262152</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>263</v>
@@ -3596,13 +3569,13 @@
         <v>273115</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>521</v>
@@ -3611,18 +3584,18 @@
         <v>535267</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3634,13 +3607,13 @@
         <v>131224</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>139</v>
@@ -3649,13 +3622,13 @@
         <v>152412</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>260</v>
@@ -3664,13 +3637,13 @@
         <v>283637</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3658,13 @@
         <v>126080</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>126</v>
@@ -3700,13 +3673,13 @@
         <v>132996</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M41" s="7">
         <v>234</v>
@@ -3715,13 +3688,13 @@
         <v>259077</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>297</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3709,13 @@
         <v>157428</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>150</v>
@@ -3751,13 +3724,13 @@
         <v>160758</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>287</v>
@@ -3766,13 +3739,13 @@
         <v>318186</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3760,13 @@
         <v>103710</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H43" s="7">
         <v>101</v>
@@ -3802,13 +3775,13 @@
         <v>106134</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M43" s="7">
         <v>191</v>
@@ -3817,19 +3790,19 @@
         <v>209845</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>115</v>
@@ -3838,13 +3811,13 @@
         <v>127853</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
         <v>121</v>
@@ -3853,13 +3826,13 @@
         <v>129416</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>236</v>
@@ -3868,13 +3841,13 @@
         <v>257269</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3862,13 @@
         <v>646295</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>637</v>
@@ -3904,13 +3877,13 @@
         <v>681717</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>1208</v>
@@ -3919,18 +3892,18 @@
         <v>1328013</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3942,13 +3915,13 @@
         <v>71032</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>52</v>
@@ -3957,13 +3930,13 @@
         <v>58782</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>122</v>
@@ -3972,13 +3945,13 @@
         <v>129814</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +3966,13 @@
         <v>130707</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>335</v>
+        <v>32</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>135</v>
@@ -4008,13 +3981,13 @@
         <v>149168</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7">
         <v>265</v>
@@ -4023,13 +3996,13 @@
         <v>279875</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4017,13 @@
         <v>189627</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H48" s="7">
         <v>203</v>
@@ -4059,13 +4032,13 @@
         <v>220346</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M48" s="7">
         <v>388</v>
@@ -4074,13 +4047,13 @@
         <v>409973</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,13 +4068,13 @@
         <v>229157</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H49" s="7">
         <v>211</v>
@@ -4110,13 +4083,13 @@
         <v>227839</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M49" s="7">
         <v>431</v>
@@ -4125,19 +4098,19 @@
         <v>456996</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>139</v>
@@ -4146,13 +4119,13 @@
         <v>151121</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H50" s="7">
         <v>147</v>
@@ -4161,13 +4134,13 @@
         <v>162327</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M50" s="7">
         <v>286</v>
@@ -4176,13 +4149,13 @@
         <v>313448</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4170,13 @@
         <v>771643</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>748</v>
@@ -4212,13 +4185,13 @@
         <v>818462</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1492</v>
@@ -4227,13 +4200,13 @@
         <v>1590105</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4223,13 @@
         <v>824624</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H52" s="7">
         <v>785</v>
@@ -4265,13 +4238,13 @@
         <v>833861</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="M52" s="7">
         <v>1581</v>
@@ -4280,13 +4253,13 @@
         <v>1658485</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>376</v>
+        <v>39</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4274,13 @@
         <v>635172</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="H53" s="7">
         <v>602</v>
@@ -4316,13 +4289,13 @@
         <v>640194</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M53" s="7">
         <v>1209</v>
@@ -4331,13 +4304,13 @@
         <v>1275366</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,16 +4322,16 @@
         <v>688</v>
       </c>
       <c r="D54" s="7">
-        <v>723979</v>
+        <v>723978</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>53</v>
+        <v>376</v>
       </c>
       <c r="H54" s="7">
         <v>703</v>
@@ -4367,13 +4340,13 @@
         <v>745461</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="M54" s="7">
         <v>1391</v>
@@ -4382,13 +4355,13 @@
         <v>1469439</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>388</v>
+        <v>68</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,16 +4373,16 @@
         <v>581</v>
       </c>
       <c r="D55" s="7">
-        <v>607170</v>
+        <v>607169</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>58</v>
+        <v>381</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H55" s="7">
         <v>607</v>
@@ -4418,13 +4391,13 @@
         <v>641430</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>394</v>
+        <v>54</v>
       </c>
       <c r="M55" s="7">
         <v>1188</v>
@@ -4433,19 +4406,19 @@
         <v>1248599</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7">
         <v>534</v>
@@ -4454,13 +4427,13 @@
         <v>574669</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>398</v>
+        <v>307</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H56" s="7">
         <v>616</v>
@@ -4469,13 +4442,13 @@
         <v>656276</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M56" s="7">
         <v>1150</v>
@@ -4484,13 +4457,13 @@
         <v>1230945</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>284</v>
+        <v>393</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,16 +4475,16 @@
         <v>3206</v>
       </c>
       <c r="D57" s="7">
-        <v>3365614</v>
+        <v>3365613</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>3313</v>
@@ -4520,13 +4493,13 @@
         <v>3517222</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>6519</v>
@@ -4535,18 +4508,18 @@
         <v>6882835</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0A07F9-4CE5-42E2-AFCF-8075F3EEBB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C84472-77BE-40C0-A570-DB22B8B2E037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D54E38D7-349A-4E75-BF24-F7E8C46E6D67}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8438044E-B9D4-4874-B604-6F8C0890E96F}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="403">
   <si>
     <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
@@ -74,1153 +74,1174 @@
     <t>32,77%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>18,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1635,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23BF5DF-5CB9-4CDE-BDEA-BD24C44B2826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542F9F54-1608-406F-990C-5B82945E2CE1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1933,7 +1954,7 @@
         <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -1942,19 +1963,19 @@
         <v>99489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>46</v>
@@ -1963,13 +1984,13 @@
         <v>52870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -1978,13 +1999,13 @@
         <v>70073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>114</v>
@@ -1993,13 +2014,13 @@
         <v>122943</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2035,13 @@
         <v>291152</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -2029,13 +2050,13 @@
         <v>284243</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>537</v>
@@ -2044,18 +2065,18 @@
         <v>575395</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2067,13 +2088,13 @@
         <v>127883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -2082,13 +2103,13 @@
         <v>119721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>231</v>
@@ -2097,13 +2118,13 @@
         <v>247603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,13 +2139,13 @@
         <v>108448</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -2133,13 +2154,13 @@
         <v>103371</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -2148,13 +2169,13 @@
         <v>211818</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,13 +2190,13 @@
         <v>97383</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>90</v>
@@ -2184,13 +2205,13 @@
         <v>97052</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>181</v>
@@ -2199,13 +2220,13 @@
         <v>194435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2241,13 @@
         <v>76741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -2235,13 +2256,13 @@
         <v>89395</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -2250,19 +2271,19 @@
         <v>166136</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>84</v>
@@ -2271,13 +2292,13 @@
         <v>87855</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -2286,13 +2307,13 @@
         <v>112198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>188</v>
@@ -2301,10 +2322,10 @@
         <v>200053</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>105</v>
@@ -2322,13 +2343,13 @@
         <v>498309</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>483</v>
@@ -2337,13 +2358,13 @@
         <v>521737</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>954</v>
@@ -2352,13 +2373,13 @@
         <v>1020046</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2498,7 @@
         <v>66152</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>125</v>
@@ -2570,7 +2591,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>22</v>
@@ -2630,13 +2651,13 @@
         <v>318565</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>330</v>
@@ -2645,13 +2666,13 @@
         <v>334488</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>665</v>
@@ -2660,13 +2681,13 @@
         <v>653053</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2842,7 @@
         <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2836,13 +2857,13 @@
         <v>26414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -2854,10 +2875,10 @@
         <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2866,19 +2887,19 @@
         <v>53635</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>68</v>
@@ -2887,13 +2908,13 @@
         <v>71865</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>77</v>
@@ -2902,7 +2923,7 @@
         <v>80970</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>190</v>
@@ -2923,7 +2944,7 @@
         <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2959,13 @@
         <v>366275</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>356</v>
@@ -2953,13 +2974,13 @@
         <v>384873</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>707</v>
@@ -2968,18 +2989,18 @@
         <v>751148</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2991,13 +3012,13 @@
         <v>6128</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3006,13 +3027,13 @@
         <v>10189</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -3021,13 +3042,13 @@
         <v>16318</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3063,13 @@
         <v>32377</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>32</v>
@@ -3057,13 +3078,13 @@
         <v>31967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -3072,13 +3093,13 @@
         <v>64344</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3114,13 @@
         <v>54681</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>52</v>
@@ -3108,13 +3129,13 @@
         <v>50585</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -3123,13 +3144,13 @@
         <v>105266</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3165,13 @@
         <v>75090</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -3159,13 +3180,13 @@
         <v>79425</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>156</v>
@@ -3174,19 +3195,19 @@
         <v>154514</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>42</v>
@@ -3195,13 +3216,13 @@
         <v>42944</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -3210,13 +3231,13 @@
         <v>46421</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M32" s="7">
         <v>89</v>
@@ -3225,10 +3246,10 @@
         <v>89366</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>238</v>
@@ -3246,13 +3267,13 @@
         <v>211221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>223</v>
@@ -3261,13 +3282,13 @@
         <v>218587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>435</v>
@@ -3276,13 +3297,13 @@
         <v>429808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,7 +3407,7 @@
         <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3422,13 @@
         <v>34893</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -3416,13 +3437,13 @@
         <v>35533</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>50</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -3431,13 +3452,13 @@
         <v>70427</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3473,13 @@
         <v>26132</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="H37" s="7">
         <v>27</v>
@@ -3467,13 +3488,13 @@
         <v>27532</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>53</v>
@@ -3482,19 +3503,19 @@
         <v>53664</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>18</v>
@@ -3503,13 +3524,13 @@
         <v>19148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -3521,10 +3542,10 @@
         <v>27</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="M38" s="7">
         <v>48</v>
@@ -3533,13 +3554,13 @@
         <v>50378</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3575,13 @@
         <v>262152</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>263</v>
@@ -3569,13 +3590,13 @@
         <v>273115</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>521</v>
@@ -3584,18 +3605,18 @@
         <v>535267</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3607,13 +3628,13 @@
         <v>131224</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="H40" s="7">
         <v>139</v>
@@ -3622,13 +3643,13 @@
         <v>152412</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>260</v>
@@ -3637,13 +3658,13 @@
         <v>283637</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3679,13 @@
         <v>126080</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H41" s="7">
         <v>126</v>
@@ -3673,13 +3694,13 @@
         <v>132996</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>234</v>
@@ -3688,13 +3709,13 @@
         <v>259077</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,10 +3730,10 @@
         <v>157428</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>296</v>
@@ -3742,10 +3763,10 @@
         <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3781,7 @@
         <v>103710</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>303</v>
@@ -3778,10 +3799,10 @@
         <v>305</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>191</v>
@@ -3790,19 +3811,19 @@
         <v>209845</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>115</v>
@@ -3811,13 +3832,13 @@
         <v>127853</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H44" s="7">
         <v>121</v>
@@ -3826,13 +3847,13 @@
         <v>129416</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>236</v>
@@ -3841,13 +3862,13 @@
         <v>257269</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3883,13 @@
         <v>646295</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>637</v>
@@ -3877,13 +3898,13 @@
         <v>681717</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>1208</v>
@@ -3892,18 +3913,18 @@
         <v>1328013</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3915,13 +3936,13 @@
         <v>71032</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>52</v>
@@ -3930,13 +3951,13 @@
         <v>58782</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" s="7">
         <v>122</v>
@@ -3945,10 +3966,10 @@
         <v>129814</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>327</v>
@@ -3966,13 +3987,13 @@
         <v>130707</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>135</v>
@@ -3981,13 +4002,13 @@
         <v>149168</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>265</v>
@@ -3996,13 +4017,13 @@
         <v>279875</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4038,13 @@
         <v>189627</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H48" s="7">
         <v>203</v>
@@ -4032,13 +4053,13 @@
         <v>220346</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M48" s="7">
         <v>388</v>
@@ -4047,13 +4068,13 @@
         <v>409973</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4089,13 @@
         <v>229157</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H49" s="7">
         <v>211</v>
@@ -4083,13 +4104,13 @@
         <v>227839</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M49" s="7">
         <v>431</v>
@@ -4098,19 +4119,19 @@
         <v>456996</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>139</v>
@@ -4119,13 +4140,13 @@
         <v>151121</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H50" s="7">
         <v>147</v>
@@ -4134,13 +4155,13 @@
         <v>162327</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M50" s="7">
         <v>286</v>
@@ -4149,13 +4170,13 @@
         <v>313448</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4191,13 @@
         <v>771643</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>748</v>
@@ -4185,13 +4206,13 @@
         <v>818462</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>1492</v>
@@ -4200,13 +4221,13 @@
         <v>1590105</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4244,13 @@
         <v>824624</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H52" s="7">
         <v>785</v>
@@ -4238,13 +4259,13 @@
         <v>833861</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M52" s="7">
         <v>1581</v>
@@ -4253,13 +4274,13 @@
         <v>1658485</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4295,13 @@
         <v>635172</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H53" s="7">
         <v>602</v>
@@ -4289,13 +4310,13 @@
         <v>640194</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="M53" s="7">
         <v>1209</v>
@@ -4304,13 +4325,13 @@
         <v>1275366</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,16 +4343,16 @@
         <v>688</v>
       </c>
       <c r="D54" s="7">
-        <v>723978</v>
+        <v>723979</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H54" s="7">
         <v>703</v>
@@ -4340,13 +4361,13 @@
         <v>745461</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M54" s="7">
         <v>1391</v>
@@ -4355,13 +4376,13 @@
         <v>1469439</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>68</v>
+        <v>384</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,16 +4394,16 @@
         <v>581</v>
       </c>
       <c r="D55" s="7">
-        <v>607169</v>
+        <v>607170</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H55" s="7">
         <v>607</v>
@@ -4391,13 +4412,13 @@
         <v>641430</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>384</v>
+        <v>213</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="M55" s="7">
         <v>1188</v>
@@ -4406,19 +4427,19 @@
         <v>1248599</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>534</v>
@@ -4427,13 +4448,13 @@
         <v>574669</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H56" s="7">
         <v>616</v>
@@ -4442,13 +4463,13 @@
         <v>656276</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>316</v>
+        <v>398</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>1150</v>
@@ -4457,13 +4478,13 @@
         <v>1230945</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,16 +4496,16 @@
         <v>3206</v>
       </c>
       <c r="D57" s="7">
-        <v>3365613</v>
+        <v>3365614</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>3313</v>
@@ -4493,13 +4514,13 @@
         <v>3517222</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>6519</v>
@@ -4508,18 +4529,18 @@
         <v>6882835</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C84472-77BE-40C0-A570-DB22B8B2E037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E0F37B4-87D9-4E41-ACFD-5932CB18A442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8438044E-B9D4-4874-B604-6F8C0890E96F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6581F6E0-2D0A-4237-A141-E73B7DEBDC3C}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542F9F54-1608-406F-990C-5B82945E2CE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824CE322-2CF3-45BB-8B7F-622792DB7F63}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2731,7 +2731,7 @@
         <v>280</v>
       </c>
       <c r="N22" s="7">
-        <v>298091</v>
+        <v>298090</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>158</v>
@@ -2986,7 +2986,7 @@
         <v>707</v>
       </c>
       <c r="N27" s="7">
-        <v>751148</v>
+        <v>751147</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4343,7 +4343,7 @@
         <v>688</v>
       </c>
       <c r="D54" s="7">
-        <v>723979</v>
+        <v>723978</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>378</v>
@@ -4394,7 +4394,7 @@
         <v>581</v>
       </c>
       <c r="D55" s="7">
-        <v>607170</v>
+        <v>607169</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>387</v>
@@ -4496,7 +4496,7 @@
         <v>3206</v>
       </c>
       <c r="D57" s="7">
-        <v>3365614</v>
+        <v>3365613</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
